--- a/RICS_timecourse/GAF.xlsx
+++ b/RICS_timecourse/GAF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Reeveslab\Trainees\Sadia Siddika Dima\Confocal\GAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtreeves\Documents\Matlab\RICS\Zld-GAF-Dima2025\RICS_timecourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C942BB7A-6D4F-46D2-911B-BA384016359C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F0C36-13DD-4808-BE84-A600600DE56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{36D84B69-77C2-41A6-A601-BD8ED20702A9}"/>
+    <workbookView xWindow="0" yWindow="-16200" windowWidth="14400" windowHeight="16200" activeTab="1" xr2:uid="{36D84B69-77C2-41A6-A601-BD8ED20702A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="43">
   <si>
     <t>folder</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>end frame</t>
-  </si>
-  <si>
-    <t>G:\Shared drives\Reeveslab\Trainees\Sadia Siddika Dima\Confocal\GAF\control</t>
   </si>
   <si>
     <t>2024-01-22\</t>
@@ -250,9 +247,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -290,7 +287,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -396,7 +393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -538,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1333,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9C4BB9-3BDD-403A-A935-2D59D4B68F15}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,16 +1380,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -1437,7 +1434,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>13</v>
@@ -1486,13 +1483,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>12</v>
@@ -1557,13 +1554,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>11</v>
@@ -1645,13 +1642,13 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -1737,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D810CE36-C24E-FA46-B265-C3C6D2647B3E}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,10 +1780,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1927,7 +1924,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -2024,7 +2021,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2109,10 +2106,10 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>13</v>
